--- a/학습자료/단답형/국어_복습_1주차.xlsx
+++ b/학습자료/단답형/국어_복습_1주차.xlsx
@@ -458,12 +458,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>곡식이나 장작 따위의 더미를 세는 단위 한 가리는 20단</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>가리</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>곡식이나 장작 따위의 더미를 세는 단위. 한 가리는 20단</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +480,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>굴비, 비웃 따위나 고비, 고사리 따위를 묶어 세는 단위 한 갓은 굴비비웃 따위 열 마리, 또는 고비고사리 따위 열 모숨을 한 줄로 엮은 것</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>갓</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>굴비, 비웃 따위나 고비, 고사리 따위를 묶어 세는 단위. 한 갓은 굴비․비웃 따위 열 마리, 또는 고비․고사리 따위 열 모숨을 한 줄로 엮은 것</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -502,12 +502,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>오이나 가지 따위를 묶어 세는 단위 한 거리는 50개</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>거리</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>오이나 가지 따위를 묶어 세는 단위. 한 거리는 50개</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -524,12 +524,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>달걀 열 개를 묶어 세는 단위</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>꾸러미</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>달걀 열 개를 묶어 세는 단위</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -546,12 +546,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>물건 열두 개를 묶어 세는 단위 ('타' X)</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>다스</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>물건 열두 개를 묶어 세는 단위 ('타' X)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -568,12 +568,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>짚, 땔나무, 채소 따위의 묶음을 세는 단위</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>단</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>짚, 땔나무, 채소 따위의 묶음을 세는 단위</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -590,12 +590,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>조기 따위의 물고기를 짚으로 한 줄에 열 마리씩 두 줄로 엮은 것을 세는 단위</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>두름</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>조기 따위의 물고기를 짚으로 한 줄에 열 마리씩 두 줄로 엮은 것을 세는 단위</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -612,12 +612,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>이엉을 엮어서 말아 놓은 단을 세는 단위</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>마름</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>이엉을 엮어서 말아 놓은 단을 세는 단위</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -634,12 +634,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>논밭 넓이의 단위 한 마지기는 볍씨 한 말의 모 또는 씨앗을 심을 만한 넓이로, 지방마다 다르나 논은 약 150～300평, 밭은 약 100평 정도</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>마지기</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>논밭 넓이의 단위. 한 마지기는 볍씨 한 말의 모 또는 씨앗을 심을 만한 넓이로, 지방마다 다르나 논은 약 150～300평, 밭은 약 100평 정도</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -656,12 +656,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>신발의 크기를 잴 때 쓰는 단위 1문은 약 24cm</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
           <t>문</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>신발의 크기를 잴 때 쓰는 단위. 1문은 약 2.4cm</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -678,12 +678,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>생선이나 미역을 묶어 세는 단위 한 뭇은 생선 열 마리, 미역 열 장</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
           <t>뭇</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>생선이나 미역을 묶어 세는 단위 한 뭇은 생선 열 마리, 미역 열 장</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -700,13 +700,13 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>①길이의 단위 한 발은 두 팔을 양옆으로 펴서 벌렸을 때 한쪽 손끝에서 다른 쪽 손끝까지의 길이
+② (주로 ‘새끼’ 따위의 뒤에 쓰여) 약간의 그것이라는 뜻을 나타내는 말 잠깐 사이에 새끼 발이나 꼬았다</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
           <t>발</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>①길이의 단위. 한 발은 두 팔을 양옆으로 펴서 벌렸을 때 한쪽 손끝에서 다른 쪽 손끝까지의 길이
-② (주로 ‘새끼’ 따위의 뒤에 쓰여) 약간의 그것이라는 뜻을 나타내는 말 잠깐 사이에 새끼 발이나 꼬았다</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -723,12 +723,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>옷이나 그릇 따위가 두 개 또는 여러 개 모여 갖추는 덩어리를 세는 단위</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
           <t>벌</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>옷이나 그릇 따위가 두 개 또는 여러 개 모여 갖추는 덩어리를 세는 단위</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -745,12 +745,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>국수, 새끼, 실 따위의 뭉치를 세는 단위</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
           <t>사리</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>국수, 새끼, 실 따위의 뭉치를 세는 단위</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -767,12 +767,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>부피의 단위 곡식, 가루, 액체 따위의 부피를 잴 때 사용 한 섬은 한 말의 열 배로 약 180리터에 해당</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
           <t>섬</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>부피의 단위. 곡식, 가루, 액체 따위의 부피를 잴 때 사용 한 섬은 한 말의 열 배로 약 180리터에 해당</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -789,13 +789,13 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>①한 손에 잡을 만한 분량을 세는 단위 조기, 고등어, 배 추 따위 한 손은 큰 것과 작은 것을 합한 것을 이름 (총 2마리)
+② 미나리나 파 따위 한 손은 한 줌 분량을 이름</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
           <t>손</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>①한 손에 잡을 만한 분량을 세는 단위. 조기, 고등어, 배 추 따위 한 손은 큰 것과 작은 것을 합한 것을 이름 (총 2마리).
-② 미나리나 파 따위 한 손은 한 줌 분량을 이름.</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -812,12 +812,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
+          <t>밥 따위의 음식물을 숟가락으로 떠 그 분량을 세는 단위</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
           <t>술</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>밥 따위의 음식물을 숟가락으로 떠 그 분량을 세는 단위</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -834,14 +834,14 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>쌈</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
           <t>① 바늘을 세는 단위 24개 
 ② 옷감, 피혁 따위를 알맞은 분량으로 싸 놓은 덩이를 세는 단위
-③ 금의 무게를 나타내는 단위. 한 쌈은 금 백 냥쭝</t>
+③ 금의 무게를 나타내는 단위 한 쌈은 금 백 냥쭝</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>쌈</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -858,12 +858,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>둘을 하나로 묶어 세는 단위</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
           <t>쌍</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>둘을 하나로 묶어 세는 단위</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -880,12 +880,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>물건 열두 개를 한 단위로 세는 말('다스' X)</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
           <t>타</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>물건 열두 개를 한 단위로 세는 말('다스' X)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -902,12 +902,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
+          <t>두 팔을 둥글게 모아 만든 둘레 안에 들 만한 분량을 세는 단위</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
           <t>아름</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>두 팔을 둥글게 모아 만든 둘레 안에 들 만한 분량을 세는 단위</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -924,12 +924,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
+          <t>종이를 세는 단위 1연은 500장</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
           <t>연</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>종이를 세는 단위. 1연은 500장</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -946,12 +946,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
+          <t>기와를 세는 단위 한 우리는기와 2천 장</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
           <t>우리</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>기와를 세는 단위. 한 우리는기와 2천 장</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -968,12 +968,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
+          <t>길이의 단위 한 자는 한 치의 열 배로 약 303cm에 해당 [비슷한 말] 척6(尺)</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
           <t>자</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>길이의 단위. 한 자는 한 치의 열 배로 약 30.3cm에 해당 [비슷한 말] 척6(尺)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -990,12 +990,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
+          <t>채소나 과일 따위를 묶어 세는 단위 한 접은 채소나 과일 백 개를 이름</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
           <t>접</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>채소나 과일 따위를 묶어 세는 단위. 한 접은 채소나 과일 백 개를 이름</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1012,12 +1012,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
+          <t>한약의 분량을 나타내는 단위 한 제는 탕약스무 첩</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
           <t>제</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>한약의 분량을 나타내는 단위. 한 제는 탕약스무 첩</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1034,12 +1034,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
+          <t>옷, 그릇 따위의 열 벌을 묶어 이른 말</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
           <t>죽</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>옷, 그릇 따위의 열 벌을 묶어 이른 말</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1056,12 +1056,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
+          <t>오징어를 묶어 세는 단위 한 축은 오징어 스무 마리를 이름</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
           <t>축</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>오징어를 묶어 세는 단위 한 축은 오징어 스무 마리를 이름</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1078,13 +1078,13 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
+          <t>길이의 단위 한 치는 한 자의 10분의 1 또는 약 303cm에 해당한다
+cf 촌(寸)</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
           <t>치</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>길이의 단위. 한 치는 한 자의 10분의 1 또는 약 3.03cm에 해당한다.
-cf 촌(寸)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1101,12 +1101,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
+          <t>쾌(북어를 묶어 세는 단위 한 쾌는 북어 20마리)의 방언</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
           <t>코</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>쾌(북어를 묶어 세는 단위. 한 쾌는 북어 20마리)의 방언</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1123,12 +1123,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
+          <t>북어 20마리를 묶은 단위</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
           <t>쾌</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>북어 20마리를 묶은 단위</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1145,12 +1145,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
+          <t>김을 세는 단위 100장</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
           <t>톳</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>김을 세는 단위 100장</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1167,12 +1167,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
+          <t>沖年(읽는 법)</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
           <t>충년</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>沖年(읽는 법)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1189,12 +1189,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
+          <t>志學(읽는 법)</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
           <t>지학</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>志學(읽는 법)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1211,12 +1211,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
+          <t>弱冠(읽는 법)</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
           <t>약관</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>弱冠(읽는 법)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1233,12 +1233,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
+          <t>而立(읽는 법)</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
           <t>이립</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>而立(읽는 법)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1255,12 +1255,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
+          <t>不惑(읽는 법)</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
           <t>불혹</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>不惑(읽는 법)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1277,12 +1277,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
+          <t>知命(읽는 법)</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
           <t>지명</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>知命(읽는 법)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1299,12 +1299,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
+          <t>耳順(읽는 법)</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
           <t>이순</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>耳順(읽는 법)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1321,12 +1321,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
+          <t>換甲(읽는 법)</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
           <t>환갑</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>換甲(읽는 법)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1343,12 +1343,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
+          <t>還甲(읽는 법)</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
           <t>환갑</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>還甲(읽는 법)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1365,12 +1365,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
+          <t>回甲(읽는 법)</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
           <t>회갑</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>回甲(읽는 법)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1387,12 +1387,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
+          <t>古稀(읽는 법)</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
           <t>고희</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>古稀(읽는 법)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1409,12 +1409,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
+          <t>喜壽(읽는 법)</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
           <t>희수</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>喜壽(읽는 법)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1431,12 +1431,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
+          <t>米壽(읽는 법)</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
           <t>미수</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>米壽(읽는 법)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1453,14 +1453,14 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
+          <t>白壽(읽는 법)</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
           <t>백수</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>白壽(읽는 법)</t>
-        </is>
-      </c>
       <c r="C47" t="inlineStr">
         <is>
           <t>1주차</t>
@@ -1473,14 +1473,14 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="n">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>沖年(00살)</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
         <v>10</v>
       </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>沖年(00살)</t>
-        </is>
-      </c>
       <c r="C48" t="inlineStr">
         <is>
           <t>1주차</t>
@@ -1493,14 +1493,14 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="n">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>志學(00살)</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
         <v>15</v>
       </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>志學(00살)</t>
-        </is>
-      </c>
       <c r="C49" t="inlineStr">
         <is>
           <t>1주차</t>
@@ -1513,14 +1513,14 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="n">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>弱冠(00살)</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
         <v>20</v>
       </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>弱冠(00살)</t>
-        </is>
-      </c>
       <c r="C50" t="inlineStr">
         <is>
           <t>1주차</t>
@@ -1533,14 +1533,14 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="n">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>而立(00살)</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
         <v>30</v>
       </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>而立(00살)</t>
-        </is>
-      </c>
       <c r="C51" t="inlineStr">
         <is>
           <t>1주차</t>
@@ -1553,14 +1553,14 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="n">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>不惑(00살)</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
         <v>40</v>
       </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>不惑(00살)</t>
-        </is>
-      </c>
       <c r="C52" t="inlineStr">
         <is>
           <t>1주차</t>
@@ -1573,14 +1573,14 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="n">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>知命(00살)</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
         <v>50</v>
       </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>知命(00살)</t>
-        </is>
-      </c>
       <c r="C53" t="inlineStr">
         <is>
           <t>1주차</t>
@@ -1593,14 +1593,14 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="n">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>耳順(00살)</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
         <v>60</v>
       </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>耳順(00살)</t>
-        </is>
-      </c>
       <c r="C54" t="inlineStr">
         <is>
           <t>1주차</t>
@@ -1613,14 +1613,14 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="n">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>換甲(00살)</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
         <v>61</v>
       </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>換甲(00살)</t>
-        </is>
-      </c>
       <c r="C55" t="inlineStr">
         <is>
           <t>1주차</t>
@@ -1633,14 +1633,14 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="n">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>還甲(00살)</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
         <v>61</v>
       </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>還甲(00살)</t>
-        </is>
-      </c>
       <c r="C56" t="inlineStr">
         <is>
           <t>1주차</t>
@@ -1653,14 +1653,14 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="n">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>回甲(00살)</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
         <v>61</v>
       </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>回甲(00살)</t>
-        </is>
-      </c>
       <c r="C57" t="inlineStr">
         <is>
           <t>1주차</t>
@@ -1673,14 +1673,14 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="n">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>古稀(00살)</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
         <v>70</v>
       </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>古稀(00살)</t>
-        </is>
-      </c>
       <c r="C58" t="inlineStr">
         <is>
           <t>1주차</t>
@@ -1693,14 +1693,14 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="n">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>喜壽(00살)</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
         <v>77</v>
       </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>喜壽(00살)</t>
-        </is>
-      </c>
       <c r="C59" t="inlineStr">
         <is>
           <t>1주차</t>
@@ -1713,14 +1713,14 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="n">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>米壽(00살)</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
         <v>88</v>
       </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>米壽(00살)</t>
-        </is>
-      </c>
       <c r="C60" t="inlineStr">
         <is>
           <t>1주차</t>
@@ -1733,13 +1733,13 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="n">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>白壽(00살)</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
         <v>99</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>白壽(00살)</t>
-        </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
